--- a/docentes/Medina Tolentino Elio - Estadisticos 2020.xlsx
+++ b/docentes/Medina Tolentino Elio - Estadisticos 2020.xlsx
@@ -985,7 +985,7 @@
         <v>11</v>
       </c>
       <c r="G2">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1008,7 +1008,7 @@
         <v>11</v>
       </c>
       <c r="G3">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1031,7 +1031,7 @@
         <v>12</v>
       </c>
       <c r="G4">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1054,7 +1054,7 @@
         <v>12</v>
       </c>
       <c r="G5">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1077,7 +1077,7 @@
         <v>13</v>
       </c>
       <c r="G6">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1100,7 +1100,7 @@
         <v>13</v>
       </c>
       <c r="G7">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1123,7 +1123,7 @@
         <v>11</v>
       </c>
       <c r="G8">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1146,7 +1146,7 @@
         <v>12</v>
       </c>
       <c r="G9">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1169,7 +1169,7 @@
         <v>13</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1192,7 +1192,7 @@
         <v>13</v>
       </c>
       <c r="G11">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/docentes/Medina Tolentino Elio - Estadisticos 2020.xlsx
+++ b/docentes/Medina Tolentino Elio - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="89">
   <si>
     <t>Mat</t>
   </si>
@@ -79,76 +79,211 @@
     <t>Reprobadas</t>
   </si>
   <si>
-    <t>GASPAR</t>
-  </si>
-  <si>
-    <t>LICEA</t>
+    <t>AMABLE</t>
+  </si>
+  <si>
+    <t>ALMEIDA</t>
+  </si>
+  <si>
+    <t>BALVIN</t>
+  </si>
+  <si>
+    <t>DEMUNER</t>
+  </si>
+  <si>
+    <t>DIAZ</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
   </si>
   <si>
     <t>HERNANDEZ</t>
   </si>
   <si>
+    <t>HEREDIA</t>
+  </si>
+  <si>
+    <t>HUERTA</t>
+  </si>
+  <si>
+    <t>LEON</t>
+  </si>
+  <si>
+    <t>LIMA</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>MERINO</t>
+  </si>
+  <si>
+    <t>MIXCOHUA</t>
+  </si>
+  <si>
+    <t>NARVAEZ</t>
+  </si>
+  <si>
+    <t>PAZ</t>
+  </si>
+  <si>
     <t>PEREZ</t>
   </si>
   <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>ALEJO</t>
-  </si>
-  <si>
-    <t>MIXCOHUA</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
+    <t>PERALTA</t>
   </si>
   <si>
     <t>RAMIREZ</t>
   </si>
   <si>
-    <t>TEXCAHUA</t>
-  </si>
-  <si>
-    <t>RIVERA</t>
+    <t>ROA</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
+    <t>ROSSAINZ</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>TEZOCO</t>
+  </si>
+  <si>
+    <t>LARA</t>
+  </si>
+  <si>
+    <t>CONTRERAS</t>
+  </si>
+  <si>
+    <t>MENDOZA</t>
+  </si>
+  <si>
+    <t>VILLANUEVA</t>
   </si>
   <si>
     <t>GUTIERREZ</t>
   </si>
   <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>TLEHUACTLE</t>
+  </si>
+  <si>
+    <t>MARINERO</t>
+  </si>
+  <si>
+    <t>TORRES</t>
+  </si>
+  <si>
+    <t>VALERDE</t>
+  </si>
+  <si>
+    <t>ZEPAHUA</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
     <t>TRUJILLO</t>
   </si>
   <si>
-    <t>VASQUEZ</t>
-  </si>
-  <si>
-    <t>ZEPAHUA</t>
-  </si>
-  <si>
-    <t>VIANEY</t>
-  </si>
-  <si>
-    <t>QADMIEL TAMARA</t>
+    <t>BERNABE</t>
+  </si>
+  <si>
+    <t>BERMUDEZ</t>
+  </si>
+  <si>
+    <t>HERRERA</t>
+  </si>
+  <si>
+    <t>TEMOXTLE</t>
+  </si>
+  <si>
+    <t>KAREN YESSENIA</t>
+  </si>
+  <si>
+    <t>CRYSTAL MICHELL</t>
+  </si>
+  <si>
+    <t>JAZMIN</t>
+  </si>
+  <si>
+    <t>ABDIEL ALFREDO</t>
+  </si>
+  <si>
+    <t>JAIR</t>
+  </si>
+  <si>
+    <t>LEYNER</t>
+  </si>
+  <si>
+    <t>GUADALUPE ABRIL</t>
   </si>
   <si>
     <t>KEVIN JETHZAEL</t>
   </si>
   <si>
+    <t>TANIA ARLETH</t>
+  </si>
+  <si>
+    <t>MARIANA</t>
+  </si>
+  <si>
+    <t>DANNA PAOLA</t>
+  </si>
+  <si>
+    <t>GUILLERMO UBALDO</t>
+  </si>
+  <si>
+    <t>DIANA</t>
+  </si>
+  <si>
+    <t>JULIO CESAR</t>
+  </si>
+  <si>
+    <t>ALEXIS</t>
+  </si>
+  <si>
+    <t>ARIEL</t>
+  </si>
+  <si>
+    <t>ASAEL PAULINO</t>
+  </si>
+  <si>
+    <t>HEIDI YAMILET</t>
+  </si>
+  <si>
+    <t>MARISOL</t>
+  </si>
+  <si>
+    <t>JANETH</t>
+  </si>
+  <si>
     <t>JUDITH ESTEFANIA</t>
   </si>
   <si>
-    <t>AMISADAI</t>
-  </si>
-  <si>
-    <t>RAUL ALEJANDRO</t>
-  </si>
-  <si>
-    <t>ALEXIS</t>
-  </si>
-  <si>
-    <t>BRAYAN</t>
-  </si>
-  <si>
-    <t>YAMILETH</t>
+    <t>MILKA</t>
+  </si>
+  <si>
+    <t>DAYRA DENISSE</t>
+  </si>
+  <si>
+    <t>FATIMA</t>
+  </si>
+  <si>
+    <t>SARAI</t>
+  </si>
+  <si>
+    <t>ATZIN ADAO</t>
+  </si>
+  <si>
+    <t>ALAN YAMIL</t>
   </si>
 </sst>
 </file>
@@ -932,7 +1067,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -967,22 +1102,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>19330051920232</v>
+        <v>19330051920186</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -990,22 +1125,22 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>19330051920237</v>
+        <v>19330051920185</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -1013,16 +1148,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>19330051920197</v>
+        <v>19330051920187</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -1036,16 +1171,16 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>19330051920214</v>
+        <v>19330051920189</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -1059,22 +1194,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>18330051920395</v>
+        <v>19330051920190</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -1082,22 +1217,22 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>18330051920395</v>
+        <v>19330051920192</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1105,39 +1240,39 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>19330051920223</v>
+        <v>19330051920193</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>19330051920207</v>
+        <v>19330051920197</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -1146,53 +1281,444 @@
         <v>12</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>18330051920396</v>
+        <v>19330051920196</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>18330051920407</v>
+        <v>19330051920200</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>19330051920202</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>19330051920203</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>19330051920204</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>19330051920206</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>19330051920207</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>19330051920209</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>19330051920211</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>19330051920215</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>19330051920212</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>19330051920213</v>
+      </c>
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>19330051920214</v>
+      </c>
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>19330051920216</v>
+      </c>
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>19330051920218</v>
+      </c>
+      <c r="B24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>19330051920220</v>
+      </c>
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>19330051920439</v>
+      </c>
+      <c r="B26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>19330051920219</v>
+      </c>
+      <c r="B27" t="s">
         <v>43</v>
       </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
+      <c r="C27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>19330051920221</v>
+      </c>
+      <c r="B28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" t="s">
+        <v>88</v>
+      </c>
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/docentes/Medina Tolentino Elio - Estadisticos 2020.xlsx
+++ b/docentes/Medina Tolentino Elio - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="117">
   <si>
     <t>Mat</t>
   </si>
@@ -79,6 +79,39 @@
     <t>Reprobadas</t>
   </si>
   <si>
+    <t>ALEJO</t>
+  </si>
+  <si>
+    <t>CESPEDES</t>
+  </si>
+  <si>
+    <t>DIAZ</t>
+  </si>
+  <si>
+    <t>ESTRADA</t>
+  </si>
+  <si>
+    <t>GASPAR</t>
+  </si>
+  <si>
+    <t>LICEA</t>
+  </si>
+  <si>
+    <t>REYES</t>
+  </si>
+  <si>
+    <t>REYNOSO</t>
+  </si>
+  <si>
+    <t>RIVERA</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>VERA</t>
+  </si>
+  <si>
     <t>AMABLE</t>
   </si>
   <si>
@@ -91,9 +124,6 @@
     <t>DEMUNER</t>
   </si>
   <si>
-    <t>DIAZ</t>
-  </si>
-  <si>
     <t>GARCIA</t>
   </si>
   <si>
@@ -154,6 +184,30 @@
     <t>TEZOCO</t>
   </si>
   <si>
+    <t>VASQUEZ</t>
+  </si>
+  <si>
+    <t>CRUZ</t>
+  </si>
+  <si>
+    <t>CASTAÑEDA</t>
+  </si>
+  <si>
+    <t>TEXCAHUA</t>
+  </si>
+  <si>
+    <t>ANDRADE</t>
+  </si>
+  <si>
+    <t>ALCARAZ</t>
+  </si>
+  <si>
+    <t>GOMEZ</t>
+  </si>
+  <si>
+    <t>LLAVE</t>
+  </si>
+  <si>
     <t>LARA</t>
   </si>
   <si>
@@ -169,9 +223,6 @@
     <t>GUTIERREZ</t>
   </si>
   <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
     <t>TLEHUACTLE</t>
   </si>
   <si>
@@ -203,6 +254,39 @@
   </si>
   <si>
     <t>TEMOXTLE</t>
+  </si>
+  <si>
+    <t>RAUL ALEJANDRO</t>
+  </si>
+  <si>
+    <t>ERICK MANUEL</t>
+  </si>
+  <si>
+    <t>IRVING YAHIR</t>
+  </si>
+  <si>
+    <t>BRAULIO VADIR</t>
+  </si>
+  <si>
+    <t>VIANEY</t>
+  </si>
+  <si>
+    <t>QADMIEL TAMARA</t>
+  </si>
+  <si>
+    <t>ALEXANDER</t>
+  </si>
+  <si>
+    <t>RENZO JHOVANI</t>
+  </si>
+  <si>
+    <t>MARIA DE JESUS</t>
+  </si>
+  <si>
+    <t>ANGEL EDUARDO</t>
+  </si>
+  <si>
+    <t>YESUA ISIDRO</t>
   </si>
   <si>
     <t>KAREN YESSENIA</t>
@@ -687,19 +771,19 @@
         <v>28</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G2">
-        <v>53.57</v>
+        <v>60.71</v>
       </c>
       <c r="H2">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -836,7 +920,7 @@
         <v>28</v>
       </c>
       <c r="E2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -967,19 +1051,19 @@
         <v>28</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G2">
-        <v>53.57</v>
+        <v>60.71</v>
       </c>
       <c r="H2">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1067,7 +1151,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1102,22 +1186,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>19330051920186</v>
+        <v>19330051920223</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -1125,22 +1209,22 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>19330051920185</v>
+        <v>19330051920225</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -1148,22 +1232,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>19330051920187</v>
+        <v>19330051920229</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -1171,22 +1255,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>19330051920189</v>
+        <v>19330051920230</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -1194,22 +1278,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>19330051920190</v>
+        <v>19330051920232</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -1217,22 +1301,22 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>19330051920192</v>
+        <v>19330051920237</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1240,22 +1324,22 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>19330051920193</v>
+        <v>19330051420227</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="D8" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1263,22 +1347,22 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>19330051920197</v>
+        <v>19330051920404</v>
       </c>
       <c r="B9" t="s">
         <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -1286,22 +1370,22 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>19330051920196</v>
+        <v>19330051920240</v>
       </c>
       <c r="B10" t="s">
         <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="D10" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -1309,22 +1393,22 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>19330051920200</v>
+        <v>19330051920242</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -1332,22 +1416,22 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>19330051920202</v>
+        <v>19330051920245</v>
       </c>
       <c r="B12" t="s">
         <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="D12" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -1355,16 +1439,16 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>19330051920203</v>
+        <v>19330051920186</v>
       </c>
       <c r="B13" t="s">
         <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
@@ -1378,16 +1462,16 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>19330051920204</v>
+        <v>19330051920185</v>
       </c>
       <c r="B14" t="s">
         <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D14" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
@@ -1401,16 +1485,16 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>19330051920206</v>
+        <v>19330051920187</v>
       </c>
       <c r="B15" t="s">
         <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D15" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
@@ -1424,16 +1508,16 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>19330051920207</v>
+        <v>19330051920189</v>
       </c>
       <c r="B16" t="s">
         <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D16" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="E16" t="s">
         <v>8</v>
@@ -1447,16 +1531,16 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>19330051920209</v>
+        <v>19330051920190</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="E17" t="s">
         <v>8</v>
@@ -1470,16 +1554,16 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>19330051920211</v>
+        <v>19330051920192</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D18" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="E18" t="s">
         <v>8</v>
@@ -1493,16 +1577,16 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>19330051920215</v>
+        <v>19330051920193</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="D19" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="E19" t="s">
         <v>8</v>
@@ -1516,16 +1600,16 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>19330051920212</v>
+        <v>19330051920197</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="D20" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="E20" t="s">
         <v>8</v>
@@ -1539,16 +1623,16 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>19330051920213</v>
+        <v>19330051920196</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="E21" t="s">
         <v>8</v>
@@ -1562,16 +1646,16 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>19330051920214</v>
+        <v>19330051920200</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="D22" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="E22" t="s">
         <v>8</v>
@@ -1585,16 +1669,16 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>19330051920216</v>
+        <v>19330051920202</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="D23" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="E23" t="s">
         <v>8</v>
@@ -1608,16 +1692,16 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>19330051920218</v>
+        <v>19330051920203</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="D24" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="E24" t="s">
         <v>8</v>
@@ -1631,16 +1715,16 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>19330051920220</v>
+        <v>19330051920204</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="D25" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="E25" t="s">
         <v>8</v>
@@ -1654,16 +1738,16 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
-        <v>19330051920439</v>
+        <v>19330051920206</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C26" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D26" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="E26" t="s">
         <v>8</v>
@@ -1677,16 +1761,16 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
-        <v>19330051920219</v>
+        <v>19330051920207</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C27" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="D27" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="E27" t="s">
         <v>8</v>
@@ -1700,24 +1784,277 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
+        <v>19330051920209</v>
+      </c>
+      <c r="B28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" t="s">
+        <v>105</v>
+      </c>
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>19330051920211</v>
+      </c>
+      <c r="B29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" t="s">
+        <v>106</v>
+      </c>
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>19330051920215</v>
+      </c>
+      <c r="B30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" t="s">
+        <v>107</v>
+      </c>
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>19330051920212</v>
+      </c>
+      <c r="B31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" t="s">
+        <v>108</v>
+      </c>
+      <c r="E31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>19330051920213</v>
+      </c>
+      <c r="B32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" t="s">
+        <v>109</v>
+      </c>
+      <c r="E32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>19330051920214</v>
+      </c>
+      <c r="B33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" t="s">
+        <v>110</v>
+      </c>
+      <c r="E33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>19330051920216</v>
+      </c>
+      <c r="B34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" t="s">
+        <v>111</v>
+      </c>
+      <c r="E34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>19330051920218</v>
+      </c>
+      <c r="B35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" t="s">
+        <v>112</v>
+      </c>
+      <c r="E35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>19330051920220</v>
+      </c>
+      <c r="B36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" t="s">
+        <v>113</v>
+      </c>
+      <c r="E36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>19330051920439</v>
+      </c>
+      <c r="B37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" t="s">
+        <v>114</v>
+      </c>
+      <c r="E37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>19330051920219</v>
+      </c>
+      <c r="B38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38" t="s">
+        <v>115</v>
+      </c>
+      <c r="E38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39">
         <v>19330051920221</v>
       </c>
-      <c r="B28" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" t="s">
-        <v>88</v>
-      </c>
-      <c r="E28" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28">
+      <c r="B39" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" t="s">
+        <v>78</v>
+      </c>
+      <c r="D39" t="s">
+        <v>116</v>
+      </c>
+      <c r="E39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39">
         <v>2</v>
       </c>
     </row>

--- a/docentes/Medina Tolentino Elio - Estadisticos 2020.xlsx
+++ b/docentes/Medina Tolentino Elio - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="52">
   <si>
     <t>Mat</t>
   </si>
@@ -79,295 +79,100 @@
     <t>Reprobadas</t>
   </si>
   <si>
-    <t>ALEJO</t>
-  </si>
-  <si>
-    <t>CESPEDES</t>
-  </si>
-  <si>
-    <t>DIAZ</t>
-  </si>
-  <si>
-    <t>ESTRADA</t>
-  </si>
-  <si>
     <t>GASPAR</t>
   </si>
   <si>
     <t>LICEA</t>
   </si>
   <si>
-    <t>REYES</t>
-  </si>
-  <si>
-    <t>REYNOSO</t>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>MIXCOHUA</t>
+  </si>
+  <si>
+    <t>ROSSAINZ</t>
+  </si>
+  <si>
+    <t>CARRERA</t>
+  </si>
+  <si>
+    <t>ESCOBAR</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>DE LA TEJA</t>
+  </si>
+  <si>
+    <t>TEXCAHUA</t>
   </si>
   <si>
     <t>RIVERA</t>
   </si>
   <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>VERA</t>
-  </si>
-  <si>
-    <t>AMABLE</t>
-  </si>
-  <si>
-    <t>ALMEIDA</t>
-  </si>
-  <si>
-    <t>BALVIN</t>
-  </si>
-  <si>
-    <t>DEMUNER</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>HEREDIA</t>
-  </si>
-  <si>
-    <t>HUERTA</t>
-  </si>
-  <si>
-    <t>LEON</t>
-  </si>
-  <si>
-    <t>LIMA</t>
-  </si>
-  <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>MERINO</t>
-  </si>
-  <si>
-    <t>MIXCOHUA</t>
-  </si>
-  <si>
-    <t>NARVAEZ</t>
-  </si>
-  <si>
-    <t>PAZ</t>
-  </si>
-  <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
-    <t>PERALTA</t>
+    <t>GUTIERREZ</t>
+  </si>
+  <si>
+    <t>TORRES</t>
+  </si>
+  <si>
+    <t>ZEPAHUA</t>
+  </si>
+  <si>
+    <t>HERRERA</t>
+  </si>
+  <si>
+    <t>JIMENEZ</t>
+  </si>
+  <si>
+    <t>TINOCO</t>
+  </si>
+  <si>
+    <t>APALE</t>
+  </si>
+  <si>
+    <t>CRUZ</t>
   </si>
   <si>
     <t>RAMIREZ</t>
   </si>
   <si>
-    <t>ROA</t>
-  </si>
-  <si>
-    <t>ROMERO</t>
-  </si>
-  <si>
-    <t>ROSSAINZ</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>TEZOCO</t>
-  </si>
-  <si>
-    <t>VASQUEZ</t>
-  </si>
-  <si>
-    <t>CRUZ</t>
-  </si>
-  <si>
-    <t>CASTAÑEDA</t>
-  </si>
-  <si>
-    <t>TEXCAHUA</t>
-  </si>
-  <si>
-    <t>ANDRADE</t>
-  </si>
-  <si>
-    <t>ALCARAZ</t>
-  </si>
-  <si>
-    <t>GOMEZ</t>
-  </si>
-  <si>
-    <t>LLAVE</t>
-  </si>
-  <si>
-    <t>LARA</t>
-  </si>
-  <si>
-    <t>CONTRERAS</t>
-  </si>
-  <si>
-    <t>MENDOZA</t>
-  </si>
-  <si>
-    <t>VILLANUEVA</t>
-  </si>
-  <si>
-    <t>GUTIERREZ</t>
-  </si>
-  <si>
-    <t>TLEHUACTLE</t>
-  </si>
-  <si>
-    <t>MARINERO</t>
-  </si>
-  <si>
-    <t>TORRES</t>
-  </si>
-  <si>
-    <t>VALERDE</t>
-  </si>
-  <si>
-    <t>ZEPAHUA</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>TRUJILLO</t>
-  </si>
-  <si>
-    <t>BERNABE</t>
-  </si>
-  <si>
-    <t>BERMUDEZ</t>
-  </si>
-  <si>
-    <t>HERRERA</t>
-  </si>
-  <si>
-    <t>TEMOXTLE</t>
-  </si>
-  <si>
-    <t>RAUL ALEJANDRO</t>
-  </si>
-  <si>
-    <t>ERICK MANUEL</t>
-  </si>
-  <si>
-    <t>IRVING YAHIR</t>
-  </si>
-  <si>
-    <t>BRAULIO VADIR</t>
-  </si>
-  <si>
     <t>VIANEY</t>
   </si>
   <si>
     <t>QADMIEL TAMARA</t>
   </si>
   <si>
-    <t>ALEXANDER</t>
-  </si>
-  <si>
-    <t>RENZO JHOVANI</t>
-  </si>
-  <si>
-    <t>MARIA DE JESUS</t>
-  </si>
-  <si>
-    <t>ANGEL EDUARDO</t>
-  </si>
-  <si>
-    <t>YESUA ISIDRO</t>
-  </si>
-  <si>
-    <t>KAREN YESSENIA</t>
-  </si>
-  <si>
-    <t>CRYSTAL MICHELL</t>
-  </si>
-  <si>
-    <t>JAZMIN</t>
-  </si>
-  <si>
-    <t>ABDIEL ALFREDO</t>
-  </si>
-  <si>
-    <t>JAIR</t>
-  </si>
-  <si>
-    <t>LEYNER</t>
-  </si>
-  <si>
-    <t>GUADALUPE ABRIL</t>
-  </si>
-  <si>
     <t>KEVIN JETHZAEL</t>
   </si>
   <si>
-    <t>TANIA ARLETH</t>
-  </si>
-  <si>
-    <t>MARIANA</t>
-  </si>
-  <si>
-    <t>DANNA PAOLA</t>
-  </si>
-  <si>
-    <t>GUILLERMO UBALDO</t>
-  </si>
-  <si>
     <t>DIANA</t>
   </si>
   <si>
-    <t>JULIO CESAR</t>
-  </si>
-  <si>
     <t>ALEXIS</t>
   </si>
   <si>
-    <t>ARIEL</t>
-  </si>
-  <si>
-    <t>ASAEL PAULINO</t>
-  </si>
-  <si>
-    <t>HEIDI YAMILET</t>
-  </si>
-  <si>
-    <t>MARISOL</t>
-  </si>
-  <si>
-    <t>JANETH</t>
-  </si>
-  <si>
-    <t>JUDITH ESTEFANIA</t>
-  </si>
-  <si>
-    <t>MILKA</t>
-  </si>
-  <si>
-    <t>DAYRA DENISSE</t>
-  </si>
-  <si>
-    <t>FATIMA</t>
-  </si>
-  <si>
     <t>SARAI</t>
   </si>
   <si>
-    <t>ATZIN ADAO</t>
-  </si>
-  <si>
-    <t>ALAN YAMIL</t>
+    <t>CARLOS ROMAN</t>
+  </si>
+  <si>
+    <t>EDUARDO RAFAEL</t>
+  </si>
+  <si>
+    <t>JOSE ARMANDO</t>
+  </si>
+  <si>
+    <t>FERNANDO ANGEL</t>
+  </si>
+  <si>
+    <t>KEVIN GABRIEL</t>
   </si>
 </sst>
 </file>
@@ -797,16 +602,16 @@
         <v>36</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G3">
-        <v>75</v>
+        <v>77.78</v>
       </c>
       <c r="H3">
         <v>7.7</v>
@@ -823,19 +628,19 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4">
-        <v>65.38</v>
+        <v>73.08</v>
       </c>
       <c r="H4">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -849,19 +654,19 @@
         <v>26</v>
       </c>
       <c r="D5">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G5">
-        <v>65.38</v>
+        <v>76.92</v>
       </c>
       <c r="H5">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
     </row>
   </sheetData>
@@ -917,16 +722,19 @@
         <v>28</v>
       </c>
       <c r="D2">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E2">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>42.86</v>
+      </c>
+      <c r="H2">
+        <v>7.3</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -940,16 +748,19 @@
         <v>36</v>
       </c>
       <c r="D3">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="E3">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>69.44</v>
+      </c>
+      <c r="H3">
+        <v>7.7</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -963,16 +774,19 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E4">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>53.85</v>
+      </c>
+      <c r="H4">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -986,16 +800,19 @@
         <v>26</v>
       </c>
       <c r="D5">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E5">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>53.85</v>
+      </c>
+      <c r="H5">
+        <v>7.9</v>
       </c>
     </row>
   </sheetData>
@@ -1077,19 +894,19 @@
         <v>36</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G3">
-        <v>75</v>
+        <v>77.78</v>
       </c>
       <c r="H3">
-        <v>7.7</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1103,19 +920,19 @@
         <v>26</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4">
-        <v>65.38</v>
+        <v>73.08</v>
       </c>
       <c r="H4">
-        <v>7.9</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1129,16 +946,16 @@
         <v>26</v>
       </c>
       <c r="D5">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G5">
-        <v>65.38</v>
+        <v>76.92</v>
       </c>
       <c r="H5">
         <v>7.9</v>
@@ -1151,7 +968,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1186,16 +1003,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>19330051920223</v>
+        <v>19330051920232</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -1209,16 +1026,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>19330051920225</v>
+        <v>19330051920237</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -1232,22 +1049,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>19330051920229</v>
+        <v>19330051920197</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -1255,22 +1072,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>19330051920230</v>
+        <v>19330051920204</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -1278,22 +1095,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>19330051920232</v>
+        <v>19330051920207</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -1301,22 +1118,22 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>19330051920237</v>
+        <v>19330051920439</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1324,22 +1141,22 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>19330051420227</v>
+        <v>18330051920384</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -1347,22 +1164,22 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>19330051920404</v>
+        <v>18330051920384</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -1370,22 +1187,22 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>19330051920240</v>
+        <v>18330051920385</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -1393,22 +1210,22 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>19330051920242</v>
+        <v>18330051920385</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
         <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -1416,22 +1233,22 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>19330051920245</v>
+        <v>18330051920389</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -1439,22 +1256,22 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>19330051920186</v>
+        <v>18330051920389</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -1462,22 +1279,22 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>19330051920185</v>
+        <v>18330051920413</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1485,22 +1302,22 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>19330051920187</v>
+        <v>18330051920413</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -1508,22 +1325,22 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>19330051920189</v>
+        <v>18330051920388</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16">
         <v>2</v>
@@ -1531,530 +1348,24 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>19330051920190</v>
+        <v>18330051920388</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="E17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18">
-        <v>19330051920192</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" t="s">
-        <v>95</v>
-      </c>
-      <c r="E18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19">
-        <v>19330051920193</v>
-      </c>
-      <c r="B19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" t="s">
-        <v>96</v>
-      </c>
-      <c r="E19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20">
-        <v>19330051920197</v>
-      </c>
-      <c r="B20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" t="s">
-        <v>97</v>
-      </c>
-      <c r="E20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21">
-        <v>19330051920196</v>
-      </c>
-      <c r="B21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" t="s">
-        <v>98</v>
-      </c>
-      <c r="E21" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22">
-        <v>19330051920200</v>
-      </c>
-      <c r="B22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" t="s">
-        <v>99</v>
-      </c>
-      <c r="E22" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23">
-        <v>19330051920202</v>
-      </c>
-      <c r="B23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" t="s">
-        <v>100</v>
-      </c>
-      <c r="E23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24">
-        <v>19330051920203</v>
-      </c>
-      <c r="B24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" t="s">
-        <v>101</v>
-      </c>
-      <c r="E24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25">
-        <v>19330051920204</v>
-      </c>
-      <c r="B25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" t="s">
-        <v>70</v>
-      </c>
-      <c r="D25" t="s">
-        <v>102</v>
-      </c>
-      <c r="E25" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26">
-        <v>19330051920206</v>
-      </c>
-      <c r="B26" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26" t="s">
-        <v>103</v>
-      </c>
-      <c r="E26" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27">
-        <v>19330051920207</v>
-      </c>
-      <c r="B27" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" t="s">
-        <v>72</v>
-      </c>
-      <c r="D27" t="s">
-        <v>104</v>
-      </c>
-      <c r="E27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28">
-        <v>19330051920209</v>
-      </c>
-      <c r="B28" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" t="s">
-        <v>47</v>
-      </c>
-      <c r="D28" t="s">
-        <v>105</v>
-      </c>
-      <c r="E28" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29">
-        <v>19330051920211</v>
-      </c>
-      <c r="B29" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" t="s">
-        <v>73</v>
-      </c>
-      <c r="D29" t="s">
-        <v>106</v>
-      </c>
-      <c r="E29" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30">
-        <v>19330051920215</v>
-      </c>
-      <c r="B30" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" t="s">
-        <v>107</v>
-      </c>
-      <c r="E30" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31">
-        <v>19330051920212</v>
-      </c>
-      <c r="B31" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31" t="s">
-        <v>108</v>
-      </c>
-      <c r="E31" t="s">
-        <v>8</v>
-      </c>
-      <c r="F31" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32">
-        <v>19330051920213</v>
-      </c>
-      <c r="B32" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" t="s">
-        <v>109</v>
-      </c>
-      <c r="E32" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33">
-        <v>19330051920214</v>
-      </c>
-      <c r="B33" t="s">
-        <v>47</v>
-      </c>
-      <c r="C33" t="s">
-        <v>74</v>
-      </c>
-      <c r="D33" t="s">
-        <v>110</v>
-      </c>
-      <c r="E33" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34">
-        <v>19330051920216</v>
-      </c>
-      <c r="B34" t="s">
-        <v>49</v>
-      </c>
-      <c r="C34" t="s">
-        <v>75</v>
-      </c>
-      <c r="D34" t="s">
-        <v>111</v>
-      </c>
-      <c r="E34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F34" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35">
-        <v>19330051920218</v>
-      </c>
-      <c r="B35" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" t="s">
-        <v>76</v>
-      </c>
-      <c r="D35" t="s">
-        <v>112</v>
-      </c>
-      <c r="E35" t="s">
-        <v>8</v>
-      </c>
-      <c r="F35" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36">
-        <v>19330051920220</v>
-      </c>
-      <c r="B36" t="s">
-        <v>51</v>
-      </c>
-      <c r="C36" t="s">
-        <v>73</v>
-      </c>
-      <c r="D36" t="s">
-        <v>113</v>
-      </c>
-      <c r="E36" t="s">
-        <v>8</v>
-      </c>
-      <c r="F36" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37">
-        <v>19330051920439</v>
-      </c>
-      <c r="B37" t="s">
-        <v>52</v>
-      </c>
-      <c r="C37" t="s">
-        <v>77</v>
-      </c>
-      <c r="D37" t="s">
-        <v>114</v>
-      </c>
-      <c r="E37" t="s">
-        <v>8</v>
-      </c>
-      <c r="F37" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38">
-        <v>19330051920219</v>
-      </c>
-      <c r="B38" t="s">
-        <v>53</v>
-      </c>
-      <c r="C38" t="s">
-        <v>29</v>
-      </c>
-      <c r="D38" t="s">
-        <v>115</v>
-      </c>
-      <c r="E38" t="s">
-        <v>8</v>
-      </c>
-      <c r="F38" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39">
-        <v>19330051920221</v>
-      </c>
-      <c r="B39" t="s">
-        <v>54</v>
-      </c>
-      <c r="C39" t="s">
-        <v>78</v>
-      </c>
-      <c r="D39" t="s">
-        <v>116</v>
-      </c>
-      <c r="E39" t="s">
-        <v>8</v>
-      </c>
-      <c r="F39" t="s">
-        <v>12</v>
-      </c>
-      <c r="G39">
         <v>2</v>
       </c>
     </row>

--- a/docentes/Medina Tolentino Elio - Estadisticos 2020.xlsx
+++ b/docentes/Medina Tolentino Elio - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="58">
   <si>
     <t>Mat</t>
   </si>
@@ -79,12 +79,30 @@
     <t>Reprobadas</t>
   </si>
   <si>
+    <t>CHORA</t>
+  </si>
+  <si>
+    <t>LICEA</t>
+  </si>
+  <si>
+    <t>JUAREZ</t>
+  </si>
+  <si>
+    <t>CARRERA</t>
+  </si>
+  <si>
+    <t>ESCOBAR</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>DE LA TEJA</t>
+  </si>
+  <si>
     <t>GASPAR</t>
   </si>
   <si>
-    <t>LICEA</t>
-  </si>
-  <si>
     <t>HERNANDEZ</t>
   </si>
   <si>
@@ -97,24 +115,33 @@
     <t>ROSSAINZ</t>
   </si>
   <si>
-    <t>CARRERA</t>
-  </si>
-  <si>
-    <t>ESCOBAR</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>DE LA TEJA</t>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>RIVERA</t>
+  </si>
+  <si>
+    <t>MORO</t>
+  </si>
+  <si>
+    <t>JIMENEZ</t>
+  </si>
+  <si>
+    <t>TINOCO</t>
+  </si>
+  <si>
+    <t>APALE</t>
+  </si>
+  <si>
+    <t>CRUZ</t>
+  </si>
+  <si>
+    <t>RAMIREZ</t>
   </si>
   <si>
     <t>TEXCAHUA</t>
   </si>
   <si>
-    <t>RIVERA</t>
-  </si>
-  <si>
     <t>GUTIERREZ</t>
   </si>
   <si>
@@ -127,27 +154,33 @@
     <t>HERRERA</t>
   </si>
   <si>
-    <t>JIMENEZ</t>
-  </si>
-  <si>
-    <t>TINOCO</t>
-  </si>
-  <si>
-    <t>APALE</t>
-  </si>
-  <si>
-    <t>CRUZ</t>
-  </si>
-  <si>
-    <t>RAMIREZ</t>
+    <t>GABRIEL ALEJANDRO</t>
+  </si>
+  <si>
+    <t>QADMIEL TAMARA</t>
+  </si>
+  <si>
+    <t>DENISSE</t>
+  </si>
+  <si>
+    <t>CARLOS ROMAN</t>
+  </si>
+  <si>
+    <t>EDUARDO RAFAEL</t>
+  </si>
+  <si>
+    <t>JOSE ARMANDO</t>
+  </si>
+  <si>
+    <t>FERNANDO ANGEL</t>
+  </si>
+  <si>
+    <t>KEVIN GABRIEL</t>
   </si>
   <si>
     <t>VIANEY</t>
   </si>
   <si>
-    <t>QADMIEL TAMARA</t>
-  </si>
-  <si>
     <t>KEVIN JETHZAEL</t>
   </si>
   <si>
@@ -158,21 +191,6 @@
   </si>
   <si>
     <t>SARAI</t>
-  </si>
-  <si>
-    <t>CARLOS ROMAN</t>
-  </si>
-  <si>
-    <t>EDUARDO RAFAEL</t>
-  </si>
-  <si>
-    <t>JOSE ARMANDO</t>
-  </si>
-  <si>
-    <t>FERNANDO ANGEL</t>
-  </si>
-  <si>
-    <t>KEVIN GABRIEL</t>
   </si>
 </sst>
 </file>
@@ -968,7 +986,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1003,16 +1021,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>19330051920232</v>
+        <v>19330051920227</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -1032,10 +1050,10 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -1049,16 +1067,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>19330051920197</v>
+        <v>19330051920201</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -1072,22 +1090,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>19330051920204</v>
+        <v>18330051920384</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -1095,22 +1113,22 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>19330051920207</v>
+        <v>18330051920384</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -1118,22 +1136,22 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>19330051920439</v>
+        <v>18330051920385</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1141,16 +1159,16 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>18330051920384</v>
+        <v>18330051920385</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
         <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -1164,19 +1182,19 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>18330051920384</v>
+        <v>18330051920389</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
         <v>13</v>
@@ -1187,16 +1205,16 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>18330051920385</v>
+        <v>18330051920389</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
         <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -1210,19 +1228,19 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>18330051920385</v>
+        <v>18330051920413</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F11" t="s">
         <v>13</v>
@@ -1233,16 +1251,16 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>18330051920389</v>
+        <v>18330051920413</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
         <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
@@ -1256,16 +1274,16 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>18330051920389</v>
+        <v>18330051920388</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E13" t="s">
         <v>9</v>
@@ -1279,19 +1297,19 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>18330051920413</v>
+        <v>18330051920388</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
         <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F14" t="s">
         <v>13</v>
@@ -1302,71 +1320,117 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>18330051920413</v>
+        <v>19330051920232</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>18330051920388</v>
+        <v>19330051920197</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>18330051920388</v>
+        <v>19330051920204</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G17">
-        <v>2</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>19330051920207</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>19330051920439</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/docentes/Medina Tolentino Elio - Estadisticos 2020.xlsx
+++ b/docentes/Medina Tolentino Elio - Estadisticos 2020.xlsx
@@ -1194,7 +1194,7 @@
         <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F9" t="s">
         <v>13</v>
@@ -1217,7 +1217,7 @@
         <v>50</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>52</v>
       </c>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
@@ -1309,7 +1309,7 @@
         <v>52</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F14" t="s">
         <v>13</v>
